--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_full_since_2021/ifoCAst_errors_full_latest_since_2021_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_full_since_2021/ifoCAst_errors_full_latest_since_2021_GVA.xlsx
@@ -987,7 +987,7 @@
         <v>-1.80579521303635</v>
       </c>
       <c r="D23">
-        <v>0.3911762948727402</v>
+        <v>0.4006729710360878</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -998,7 +998,7 @@
         <v>-1.79791510303635</v>
       </c>
       <c r="D24">
-        <v>0.3818274538727402</v>
+        <v>0.3913241300360878</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1009,7 +1009,7 @@
         <v>-0.7329669010363498</v>
       </c>
       <c r="D25">
-        <v>0.06591665687274018</v>
+        <v>0.07541333303608777</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1020,7 +1020,7 @@
         <v>-0.5952481090363498</v>
       </c>
       <c r="D26">
-        <v>0.1054575368727402</v>
+        <v>0.1149542130360878</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1031,7 +1031,7 @@
         <v>-0.2827377510363498</v>
       </c>
       <c r="C27">
-        <v>0.6917595708727402</v>
+        <v>0.7012562470360878</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1042,7 +1042,7 @@
         <v>-0.3339644000363498</v>
       </c>
       <c r="C28">
-        <v>1.01983578087274</v>
+        <v>1.029332457036088</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1050,7 +1050,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>1.47593188287274</v>
+        <v>1.485428559036088</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1058,10 +1058,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>1.82244659987274</v>
+        <v>1.831943276036088</v>
       </c>
       <c r="D30">
-        <v>0.5768032504259835</v>
+        <v>0.55793444658209</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1069,10 +1069,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>1.68749419387274</v>
+        <v>1.696990870036088</v>
       </c>
       <c r="D31">
-        <v>0.4630429864259835</v>
+        <v>0.44417418258209</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1080,10 +1080,10 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>0.1547615318727402</v>
+        <v>0.1642582080360878</v>
       </c>
       <c r="D32">
-        <v>-0.5234501085740164</v>
+        <v>-0.54231891241791</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1091,10 +1091,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.1662691598727403</v>
+        <v>0.1757658360360879</v>
       </c>
       <c r="C33">
-        <v>-0.6129279025740164</v>
+        <v>-0.63179670641791</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1102,10 +1102,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.1808837928727403</v>
+        <v>0.1903804690360879</v>
       </c>
       <c r="C34">
-        <v>0.2601534814259835</v>
+        <v>0.24128467758209</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1113,7 +1113,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>0.4632009824259835</v>
+        <v>0.44433217858209</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1121,10 +1121,10 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>0.6250845884259835</v>
+        <v>0.6062157845820899</v>
       </c>
       <c r="D36">
-        <v>-0.8692087693002357</v>
+        <v>-0.8596988570317647</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1132,10 +1132,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>1.088701449425983</v>
+        <v>1.06983264558209</v>
       </c>
       <c r="D37">
-        <v>-0.9686075303002357</v>
+        <v>-0.9590976180317647</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1143,10 +1143,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>0.7590080824259835</v>
+        <v>0.7401392785820899</v>
       </c>
       <c r="D38">
-        <v>-1.052783137300236</v>
+        <v>-1.043273225031765</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1154,10 +1154,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.6692890444259836</v>
+        <v>0.65042024058209</v>
       </c>
       <c r="C39">
-        <v>-0.6043264833002358</v>
+        <v>-0.5948165710317647</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1165,10 +1165,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.6881010354259836</v>
+        <v>0.66923223158209</v>
       </c>
       <c r="C40">
-        <v>-1.468880585300236</v>
+        <v>-1.459370673031765</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1176,7 +1176,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>-1.553433993300236</v>
+        <v>-1.543924081031765</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1184,7 +1184,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>-1.206659537300236</v>
+        <v>-1.197149625031765</v>
       </c>
       <c r="D42">
         <v>0.2761568752907124</v>
@@ -1195,7 +1195,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>-0.8547584633002359</v>
+        <v>-0.8452485510317647</v>
       </c>
       <c r="D43">
         <v>0.2901758192907124</v>
@@ -1206,7 +1206,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>-1.147112214300236</v>
+        <v>-1.137602302031765</v>
       </c>
       <c r="D44">
         <v>0.03860501029071239</v>
@@ -1217,7 +1217,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>-1.046637463300236</v>
+        <v>-1.037127551031765</v>
       </c>
       <c r="C45">
         <v>0.1111587992907124</v>
@@ -1228,7 +1228,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>-1.095357142300236</v>
+        <v>-1.085847230031765</v>
       </c>
       <c r="C46">
         <v>-0.1494795197092876</v>
@@ -1250,7 +1250,7 @@
         <v>-0.2465114727092876</v>
       </c>
       <c r="D48">
-        <v>0.788328404264559</v>
+        <v>0.7977233685636995</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1261,7 +1261,7 @@
         <v>-0.1527522857092876</v>
       </c>
       <c r="D49">
-        <v>1.021733445264559</v>
+        <v>1.031128409563699</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1272,7 +1272,7 @@
         <v>0.1761002812907124</v>
       </c>
       <c r="D50">
-        <v>0.982640004264559</v>
+        <v>0.9920349685636995</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1283,7 +1283,7 @@
         <v>0.3872948832907124</v>
       </c>
       <c r="D51">
-        <v>1.007430421264559</v>
+        <v>1.0168253855637</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1294,7 +1294,7 @@
         <v>0.07584049829071239</v>
       </c>
       <c r="C52">
-        <v>1.044581212264559</v>
+        <v>1.053976176563699</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1305,7 +1305,7 @@
         <v>0.0971330122907124</v>
       </c>
       <c r="C53">
-        <v>1.084237634264559</v>
+        <v>1.093632598563699</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1313,7 +1313,7 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>1.115150976264559</v>
+        <v>1.124545940563699</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1321,10 +1321,10 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>1.061389726264559</v>
+        <v>1.0707846905637</v>
       </c>
       <c r="D55">
-        <v>0.917316073331129</v>
+        <v>0.8985202055291455</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1332,10 +1332,10 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>0.923930449264559</v>
+        <v>0.9333254135636995</v>
       </c>
       <c r="D56">
-        <v>0.8765450433311289</v>
+        <v>0.8577491755291454</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1343,10 +1343,10 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>0.948548502264559</v>
+        <v>0.9579434665636994</v>
       </c>
       <c r="D57">
-        <v>0.9175539353311289</v>
+        <v>0.8987580675291454</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1354,10 +1354,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1.065726943264559</v>
+        <v>1.0751219075637</v>
       </c>
       <c r="C58">
-        <v>1.277716814331129</v>
+        <v>1.258920946529146</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1365,10 +1365,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>1.111666588264559</v>
+        <v>1.1210615525637</v>
       </c>
       <c r="C59">
-        <v>1.512218933331129</v>
+        <v>1.493423065529146</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1376,7 +1376,7 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>1.046340567331129</v>
+        <v>1.027544699529146</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1384,10 +1384,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>0.565715018331129</v>
+        <v>0.5469191505291455</v>
       </c>
       <c r="D61">
-        <v>-0.9912397121624527</v>
+        <v>-0.9817231827224345</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1395,10 +1395,10 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>0.630238413331129</v>
+        <v>0.6114425455291455</v>
       </c>
       <c r="D62">
-        <v>-0.9949620201624526</v>
+        <v>-0.9854454907224345</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1406,10 +1406,10 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>0.4073451583311289</v>
+        <v>0.3885492905291454</v>
       </c>
       <c r="D63">
-        <v>-0.8968591131624527</v>
+        <v>-0.8873425837224346</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1417,10 +1417,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>-0.1155150876688711</v>
+        <v>-0.1343109554708546</v>
       </c>
       <c r="D64">
-        <v>-1.095200516162453</v>
+        <v>-1.085683986722434</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1428,10 +1428,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>0.441822470331129</v>
+        <v>0.4230266025291455</v>
       </c>
       <c r="C65">
-        <v>0.1279530128375473</v>
+        <v>0.1374695422775655</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1439,10 +1439,10 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>0.437053797331129</v>
+        <v>0.4182579295291455</v>
       </c>
       <c r="C66">
-        <v>-0.2426789321624527</v>
+        <v>-0.2331624027224345</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1450,7 +1450,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>-0.04277888716245271</v>
+        <v>-0.03326235772243452</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1458,10 +1458,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>-0.2873174671624527</v>
+        <v>-0.2778009377224345</v>
       </c>
       <c r="D68">
-        <v>-1.175091466501868</v>
+        <v>-1.165608299123972</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1469,10 +1469,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>-0.6550085641624527</v>
+        <v>-0.6454920347224345</v>
       </c>
       <c r="D69">
-        <v>-1.033768334937675</v>
+        <v>-1.024285167559779</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1480,10 +1480,10 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>-0.7198939821624527</v>
+        <v>-0.7103774527224346</v>
       </c>
       <c r="D70">
-        <v>-1.010277427205538</v>
+        <v>-1.000794259827642</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1491,10 +1491,10 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.5106281321624527</v>
+        <v>-0.5011116027224345</v>
       </c>
       <c r="C71">
-        <v>-0.6514899233638731</v>
+        <v>-0.6420067559859775</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1502,10 +1502,10 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.5639247011624527</v>
+        <v>-0.5544081717224345</v>
       </c>
       <c r="C72">
-        <v>-0.7765103153922351</v>
+        <v>-0.7670271480143395</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1513,7 +1513,7 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>-0.9320335390585944</v>
+        <v>-0.9225503716806988</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1521,10 +1521,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>-0.8586530331632335</v>
+        <v>-0.8491698657853378</v>
       </c>
       <c r="D74">
-        <v>0.8525830535100106</v>
+        <v>0.8526545954887239</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1532,10 +1532,10 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>-1.200998811033057</v>
+        <v>-1.191515643655161</v>
       </c>
       <c r="D75">
-        <v>1.016878087510011</v>
+        <v>1.016949629488724</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1543,10 +1543,10 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>-1.43992425523589</v>
+        <v>-1.430441087857995</v>
       </c>
       <c r="D76">
-        <v>0.8814661535100106</v>
+        <v>0.8815376954887238</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1554,10 +1554,10 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>-1.227393148335633</v>
+        <v>-1.217909980957737</v>
       </c>
       <c r="C77">
-        <v>0.8720822335100106</v>
+        <v>0.8721537754887239</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1565,10 +1565,10 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>-1.274882450912215</v>
+        <v>-1.26539928353432</v>
       </c>
       <c r="C78">
-        <v>0.5556741615100106</v>
+        <v>0.5557457034887239</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1576,7 +1576,7 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>0.6389953595100106</v>
+        <v>0.6390669014887239</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1584,10 +1584,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>0.5245482115100106</v>
+        <v>0.5246197534887239</v>
       </c>
       <c r="D80">
-        <v>0.3271357364848366</v>
+        <v>0.3082097950934801</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1595,10 +1595,10 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>0.2427957485100106</v>
+        <v>0.2428672904887239</v>
       </c>
       <c r="D81">
-        <v>0.3237316254848366</v>
+        <v>0.3048056840934801</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1606,10 +1606,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>0.5513600815100106</v>
+        <v>0.5514316234887239</v>
       </c>
       <c r="D82">
-        <v>0.4532827094848366</v>
+        <v>0.4343567680934801</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1617,10 +1617,10 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>0.3147768615100106</v>
+        <v>0.3148484034887239</v>
       </c>
       <c r="C83">
-        <v>1.007337400484837</v>
+        <v>0.9884114590934802</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1628,10 +1628,10 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>0.3294742345100106</v>
+        <v>0.3295457764887239</v>
       </c>
       <c r="C84">
-        <v>1.129468777484837</v>
+        <v>1.11054283609348</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1639,7 +1639,7 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>0.6398731814848366</v>
+        <v>0.6209472400934801</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1647,10 +1647,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>0.9196994354848367</v>
+        <v>0.9007734940934802</v>
       </c>
       <c r="D86">
-        <v>0.7211232408064123</v>
+        <v>0.7305722247131936</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1658,10 +1658,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>0.5358974354848366</v>
+        <v>0.5169714940934801</v>
       </c>
       <c r="D87">
-        <v>0.8327439828064123</v>
+        <v>0.8421929667131937</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1669,10 +1669,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>0.2304598224848366</v>
+        <v>0.2115338810934801</v>
       </c>
       <c r="D88">
-        <v>0.4693786418064123</v>
+        <v>0.4788276257131937</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1680,10 +1680,10 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>0.06955711048483661</v>
+        <v>0.0506311690934801</v>
       </c>
       <c r="C89">
-        <v>-0.2052381541935878</v>
+        <v>-0.1957891702868064</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1691,10 +1691,10 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.01077749951516341</v>
+        <v>-0.02970344090651991</v>
       </c>
       <c r="C90">
-        <v>-0.5895316931935877</v>
+        <v>-0.5800827092868064</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1702,7 +1702,7 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>-0.2099133951935877</v>
+        <v>-0.2004644112868063</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1710,7 +1710,7 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>-0.1893556991935877</v>
+        <v>-0.1799067152868063</v>
       </c>
       <c r="D92">
         <v>0.5381773248377819</v>
@@ -1721,7 +1721,7 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>-0.5022237831935876</v>
+        <v>-0.4927747992868063</v>
       </c>
       <c r="D93">
         <v>0.6060294938377819</v>
@@ -1732,7 +1732,7 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>-0.3513784001935877</v>
+        <v>-0.3419294162868063</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1748,7 +1748,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>-0.3153648271935877</v>
+        <v>-0.3059158432868063</v>
       </c>
       <c r="C96">
         <v>1.143160669837782</v>
@@ -1759,7 +1759,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.2764766371935877</v>
+        <v>-0.2670276532868063</v>
       </c>
       <c r="C97">
         <v>1.142129412837782</v>
@@ -1781,7 +1781,7 @@
         <v>1.107268178837782</v>
       </c>
       <c r="D99">
-        <v>-0.4561009603890247</v>
+        <v>-0.4083682634916527</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1792,7 +1792,7 @@
         <v>1.003824619837782</v>
       </c>
       <c r="D100">
-        <v>-0.5811445523890247</v>
+        <v>-0.5334118554916527</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1803,7 +1803,7 @@
         <v>0.411496762837782</v>
       </c>
       <c r="D101">
-        <v>-0.5094533513890247</v>
+        <v>-0.4617206544916527</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1814,7 +1814,7 @@
         <v>-0.007047367162217988</v>
       </c>
       <c r="D102">
-        <v>-0.8128361843890247</v>
+        <v>-0.7651034874916527</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1825,7 +1825,7 @@
         <v>0.443267296837782</v>
       </c>
       <c r="C103">
-        <v>-0.2856949653890247</v>
+        <v>-0.2379622684916527</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1836,7 +1836,7 @@
         <v>0.5544511758377819</v>
       </c>
       <c r="C104">
-        <v>-0.4612755963890247</v>
+        <v>-0.4135428994916527</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,7 +1844,7 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>-0.5253523983890247</v>
+        <v>-0.4776197014916527</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1852,10 +1852,10 @@
         <v>107</v>
       </c>
       <c r="C106">
-        <v>-0.2513871743890247</v>
+        <v>-0.2036544774916527</v>
       </c>
       <c r="D106">
-        <v>0.7031119392360052</v>
+        <v>0.5987332491758083</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1863,10 +1863,10 @@
         <v>108</v>
       </c>
       <c r="C107">
-        <v>-0.2476045163890248</v>
+        <v>-0.1998718194916527</v>
       </c>
       <c r="D107">
-        <v>0.7145379752360053</v>
+        <v>0.6101592851758083</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1874,10 +1874,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>-0.2311459983890247</v>
+        <v>-0.1834133014916527</v>
       </c>
       <c r="D108">
-        <v>0.6341935262360052</v>
+        <v>0.5298148361758083</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1885,10 +1885,10 @@
         <v>110</v>
       </c>
       <c r="C109">
-        <v>-0.009821497389024714</v>
+        <v>0.03791119950834732</v>
       </c>
       <c r="D109">
-        <v>0.6959160192360053</v>
+        <v>0.5915373291758083</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1896,10 +1896,10 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>-0.1033763483890247</v>
+        <v>-0.05564365149165268</v>
       </c>
       <c r="C110">
-        <v>0.5174219002360053</v>
+        <v>0.4130432101758083</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1907,10 +1907,10 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>-0.01419920438902478</v>
+        <v>0.03353349250834725</v>
       </c>
       <c r="C111">
-        <v>-0.2244860877639947</v>
+        <v>-0.3288647778241918</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1918,75 +1918,105 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>0.1542060022360053</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>0.04982731217580827</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C113">
-        <v>0.4412813462360053</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>0.3369026561758083</v>
+      </c>
+      <c r="D113">
+        <v>0.7254492243564907</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C114">
-        <v>0.4689256712360053</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>0.3645469811758083</v>
+      </c>
+      <c r="D114">
+        <v>0.7215746373564907</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C115">
-        <v>0.2280757452360053</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>0.1236970551758083</v>
+      </c>
+      <c r="D115">
+        <v>0.5311946523564907</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C116">
-        <v>0.3139414512360053</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>0.2095627611758083</v>
+      </c>
+      <c r="D116">
+        <v>0.5539812373564907</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B117">
-        <v>0.02261627023600529</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>-0.08176241982419175</v>
+      </c>
+      <c r="C117">
+        <v>0.1753415943564907</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B118">
-        <v>-0.0212972287639947</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>-0.1256759188241917</v>
+      </c>
+      <c r="C118">
+        <v>0.2651053283564908</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="C119">
+        <v>0.08763596535649075</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120">
+        <v>0.1003532183564907</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="C121">
+        <v>-0.02418658464350926</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="C122">
+        <v>0.2001520573564908</v>
       </c>
     </row>
   </sheetData>
